--- a/data/crd2x0-gamma.xlsx
+++ b/data/crd2x0-gamma.xlsx
@@ -370,7 +370,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>csa</t>
+          <t>lactate</t>
         </is>
       </c>
     </row>
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>897.4393650788719</v>
+        <v>2.582116011787293</v>
       </c>
     </row>
     <row r="3">
@@ -401,7 +401,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>838.2218155293548</v>
+        <v>2.529117032301565</v>
       </c>
     </row>
     <row r="4">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>694.0875283622598</v>
+        <v>2.394253096334034</v>
       </c>
     </row>
     <row r="5">
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>2095.476782291077</v>
+        <v>3.488521145981776</v>
       </c>
     </row>
     <row r="6">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>1079.193234202218</v>
+        <v>2.737753598226053</v>
       </c>
     </row>
     <row r="7">
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>1609.994381447883</v>
+        <v>3.149066289161102</v>
       </c>
     </row>
     <row r="8">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>1036.124710366917</v>
+        <v>2.701737162235199</v>
       </c>
     </row>
     <row r="9">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>2529.508989797016</v>
+        <v>3.772370382894962</v>
       </c>
     </row>
     <row r="10">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>3483.495312004395</v>
+        <v>4.352100491627288</v>
       </c>
     </row>
     <row r="11">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>1425.651155219872</v>
+        <v>3.012061824324173</v>
       </c>
     </row>
     <row r="12">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>1456.629176315426</v>
+        <v>3.035461461361937</v>
       </c>
     </row>
     <row r="13">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>9851.538594283385</v>
+        <v>1.552832947033294</v>
       </c>
     </row>
     <row r="14">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>3299.020165085873</v>
+        <v>4.501604903066869</v>
       </c>
     </row>
     <row r="15">
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>102.7085800004332</v>
+        <v>3.680561601784984</v>
       </c>
     </row>
     <row r="16">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>1197.432950342722</v>
+        <v>2.858454207939675</v>
       </c>
     </row>
     <row r="17">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>6274.850787484937</v>
+        <v>5.612663820358606</v>
       </c>
     </row>
     <row r="18">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>2746.020635230362</v>
+        <v>2.33965864647994</v>
       </c>
     </row>
     <row r="19">
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>3914.029308578733</v>
+        <v>4.185194082853326</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>1148.832384059182</v>
+        <v>3.016413580718432</v>
       </c>
     </row>
     <row r="21">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>1555.270916240234</v>
+        <v>1.464702096089565</v>
       </c>
     </row>
     <row r="22">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>245.6873977646672</v>
+        <v>10.48178650109316</v>
       </c>
     </row>
     <row r="23">
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>1698.48186583229</v>
+        <v>9.106034195437559</v>
       </c>
     </row>
     <row r="24">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>1244.213900357328</v>
+        <v>12.54066610232962</v>
       </c>
     </row>
     <row r="25">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>547.4145736467636</v>
+        <v>8.375631435459942</v>
       </c>
     </row>
     <row r="26">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>373.016486557522</v>
+        <v>9.855314235397776</v>
       </c>
     </row>
     <row r="27">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>981.1261236442211</v>
+        <v>5.989255170725468</v>
       </c>
     </row>
     <row r="28">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>720.096337159547</v>
+        <v>6.662014117370217</v>
       </c>
     </row>
     <row r="29">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>1030.022378579697</v>
+        <v>4.513537141652619</v>
       </c>
     </row>
     <row r="30">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="C30">
-        <v>1065.637193147537</v>
+        <v>4.172391935684445</v>
       </c>
     </row>
     <row r="31">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>510.4172079350947</v>
+        <v>8.676259993976716</v>
       </c>
     </row>
     <row r="32">
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>744.4823556076494</v>
+        <v>9.635250602516248</v>
       </c>
     </row>
     <row r="33">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="C33">
-        <v>1491.198854569639</v>
+        <v>7.593477382262033</v>
       </c>
     </row>
     <row r="34">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C34">
-        <v>1078.676671703656</v>
+        <v>8.142769449066551</v>
       </c>
     </row>
     <row r="35">
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="C35">
-        <v>856.533878729231</v>
+        <v>6.727060902492308</v>
       </c>
     </row>
     <row r="36">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="C36">
-        <v>1814.52741428983</v>
+        <v>11.54694871282154</v>
       </c>
     </row>
     <row r="37">
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="C37">
-        <v>2108.130029114292</v>
+        <v>8.524497998701124</v>
       </c>
     </row>
     <row r="38">
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="C38">
-        <v>282.8219924165782</v>
+        <v>11.76976658395601</v>
       </c>
     </row>
     <row r="39">
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="C39">
-        <v>2744.75229612164</v>
+        <v>6.620965273682312</v>
       </c>
     </row>
     <row r="40">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="C40">
-        <v>1744.076180347544</v>
+        <v>5.610190483522866</v>
       </c>
     </row>
     <row r="41">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C41">
-        <v>1448.905889395978</v>
+        <v>5.01549112344613</v>
       </c>
     </row>
   </sheetData>
